--- a/farmacias.xlsx
+++ b/farmacias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/germanbegani/Library/Mobile Documents/com~apple~CloudDocs/0 Alef /0 Molteni - Dolor/web_dolor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEFB7E76-49BA-1948-9064-A91D68F0BE54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96354DB-5CB9-1743-B7DE-8FBA846EAD37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="660" windowWidth="29400" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -268,12 +268,14 @@
       <sz val="11"/>
       <color rgb="FF004F6E"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color rgb="FF004F6E"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -341,6 +343,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="TablaFarmacias" displayName="TablaFarmacias" ref="A1:J12">
   <autoFilter ref="A1:J12" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J12">
+    <sortCondition ref="A2:A12"/>
+  </sortState>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="name"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="address"/>
@@ -646,7 +651,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -696,36 +701,36 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -733,45 +738,45 @@
       <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="I4" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -779,14 +784,8 @@
       <c r="E5" t="s">
         <v>13</v>
       </c>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" t="s">
-        <v>30</v>
+      <c r="H5" s="4">
+        <v>1155547975</v>
       </c>
       <c r="I5" t="s">
         <v>31</v>
@@ -794,13 +793,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -823,100 +822,106 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
       </c>
       <c r="H7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="I7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" t="s">
-        <v>50</v>
-      </c>
-      <c r="I9" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="G10" t="s">
-        <v>57</v>
+        <v>49</v>
+      </c>
+      <c r="H10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -944,25 +949,25 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="4">
-        <v>1155547975</v>
-      </c>
-      <c r="I12" t="s">
-        <v>31</v>
+        <v>55</v>
+      </c>
+      <c r="F12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">

--- a/farmacias.xlsx
+++ b/farmacias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/germanbegani/Library/Mobile Documents/com~apple~CloudDocs/0 Alef /0 Molteni - Dolor/web_dolor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96354DB-5CB9-1743-B7DE-8FBA846EAD37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1903CA6A-C67F-4C41-BAA2-77E7D9D2A022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="660" windowWidth="29400" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,9 +68,6 @@
     <t>01145051010</t>
   </si>
   <si>
-    <t>011-4505-1010</t>
-  </si>
-  <si>
     <t>FarmaStar - Consulte por envíos</t>
   </si>
   <si>
@@ -95,9 +92,6 @@
     <t>1149610338</t>
   </si>
   <si>
-    <t>11-4961-0338</t>
-  </si>
-  <si>
     <t>Farmacia Scienza Pellegrini</t>
   </si>
   <si>
@@ -249,6 +243,12 @@
   </si>
   <si>
     <t>Av. H. Yrigoyen 8955</t>
+  </si>
+  <si>
+    <t>(11) 4961-0338</t>
+  </si>
+  <si>
+    <t>(11) 4505-1010</t>
   </si>
 </sst>
 </file>
@@ -651,7 +651,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -701,82 +701,82 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
         <v>39</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" t="s">
         <v>40</v>
       </c>
-      <c r="C2" t="s">
+      <c r="I2" t="s">
         <v>41</v>
-      </c>
-      <c r="D2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>23</v>
-      </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
         <v>34</v>
       </c>
-      <c r="B4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="H4" t="s">
         <v>35</v>
       </c>
-      <c r="D4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="I4" t="s">
         <v>36</v>
-      </c>
-      <c r="H4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" t="s">
         <v>71</v>
-      </c>
-      <c r="B5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" t="s">
-        <v>73</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -788,47 +788,47 @@
         <v>1155547975</v>
       </c>
       <c r="I5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" t="s">
+      <c r="G6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
         <v>28</v>
       </c>
-      <c r="G6" t="s">
+      <c r="I6" t="s">
         <v>29</v>
-      </c>
-      <c r="H6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -837,16 +837,16 @@
         <v>13</v>
       </c>
       <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
         <v>28</v>
       </c>
-      <c r="G7" t="s">
+      <c r="I7" t="s">
         <v>29</v>
-      </c>
-      <c r="H7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -869,70 +869,70 @@
         <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
         <v>17</v>
       </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s">
         <v>44</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" t="s">
         <v>45</v>
       </c>
-      <c r="C10" t="s">
+      <c r="F10" t="s">
         <v>46</v>
       </c>
-      <c r="D10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
         <v>47</v>
       </c>
-      <c r="F10" t="s">
+      <c r="H10" t="s">
         <v>48</v>
       </c>
-      <c r="G10" t="s">
+      <c r="I10" t="s">
         <v>49</v>
-      </c>
-      <c r="H10" t="s">
-        <v>50</v>
-      </c>
-      <c r="I10" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" t="s">
         <v>67</v>
-      </c>
-      <c r="B11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" t="s">
-        <v>69</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
@@ -944,30 +944,30 @@
         <v>1153530030</v>
       </c>
       <c r="I11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
         <v>52</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" t="s">
         <v>53</v>
       </c>
-      <c r="C12" t="s">
+      <c r="F12" t="s">
         <v>54</v>
       </c>
-      <c r="D12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="G12" t="s">
         <v>55</v>
-      </c>
-      <c r="F12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -994,47 +994,47 @@
   <sheetData>
     <row r="1" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/farmacias.xlsx
+++ b/farmacias.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/germanbegani/Library/Mobile Documents/com~apple~CloudDocs/0 Alef /0 Molteni - Dolor/web_dolor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1903CA6A-C67F-4C41-BAA2-77E7D9D2A022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71A4E2F-E703-944D-B64E-496B1C29BDBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="29400" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="20920" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Farmacias" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="83">
   <si>
     <t>name</t>
   </si>
@@ -249,6 +249,27 @@
   </si>
   <si>
     <t>(11) 4505-1010</t>
+  </si>
+  <si>
+    <t>Av. Corrientes 901</t>
+  </si>
+  <si>
+    <t>Microcentro</t>
+  </si>
+  <si>
+    <t>Viamonte 891</t>
+  </si>
+  <si>
+    <t>Farmacia Rp./ Viamonte</t>
+  </si>
+  <si>
+    <t>Farmacia Rp./ Went</t>
+  </si>
+  <si>
+    <t>(11) 4322-1001</t>
+  </si>
+  <si>
+    <t>(11) 4328-6544</t>
   </si>
 </sst>
 </file>
@@ -312,7 +333,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -320,6 +341,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -341,8 +365,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="TablaFarmacias" displayName="TablaFarmacias" ref="A1:J12">
-  <autoFilter ref="A1:J12" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="TablaFarmacias" displayName="TablaFarmacias" ref="A1:J14">
+  <autoFilter ref="A1:J14" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J12">
     <sortCondition ref="A2:A12"/>
   </sortState>
@@ -651,7 +675,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
+      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -970,13 +994,63 @@
         <v>55</v>
       </c>
     </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="5">
+        <v>1143221001</v>
+      </c>
+      <c r="I13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="5">
+        <v>1143286544</v>
+      </c>
+      <c r="I14" t="s">
+        <v>82</v>
+      </c>
+    </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F16" s="3"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H13" r:id="rId1" display="https://www.google.com/search?client=safari&amp;rls=en&amp;q=farmacia+rp+went&amp;ie=UTF-8&amp;oe=UTF-8" xr:uid="{5466422A-0693-4945-A541-40C2AFE25C02}"/>
+    <hyperlink ref="H14" r:id="rId2" display="https://www.google.com/search?q=farmacia+rp+viamonte&amp;client=safari&amp;hs=Xtj9&amp;sca_esv=207ca25c77663f86&amp;rls=en&amp;sxsrf=AE3TifM4DZ0u4Ubf3LGwkNHa6GDtQ1Y8sw%3A1767101236673&amp;ei=NNNTabjxKPjU5OUPtNewyAw&amp;ved=0ahUKEwi42_mLteWRAxV4KrkGHbQrDMkQ4dUDCBE&amp;uact=5&amp;oq=farmacia+rp+viamonte&amp;gs_lp=Egxnd3Mtd2l6LXNlcnAiFGZhcm1hY2lhIHJwIHZpYW1vbnRlMgsQLhiABBjHARivATIFEAAYgAQyBhAAGBYYHjICECYyCBAAGIAEGKIEMhoQLhiABBjHARivARiXBRjcBBjeBBjgBNgBAUjTDVC9BVicDHABeAGQAQCYAbgBoAH6B6oBAzIuNrgBA8gBAPgBAZgCCaACtwjCAgcQIxiwAxgnwgIKEAAYRxjWBBiwA8ICExAuGIAEGIoFGEMYxwEY0QMYsAOYAwCIBgGQBgq6BgYIARABGBSSBwMzLjagB9lAsgcDMi42uAexCMIHBTItOC4xyActgAgB&amp;sclient=gws-wiz-serp" xr:uid="{C0BD8BFB-29E1-644A-BB2C-960C8D742171}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>

--- a/farmacias.xlsx
+++ b/farmacias.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10102"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/germanbegani/Library/Mobile Documents/com~apple~CloudDocs/0 Alef /0 Molteni - Dolor/web_dolor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71A4E2F-E703-944D-B64E-496B1C29BDBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE852C6-E81A-7D40-87A3-E66808840E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="660" windowWidth="20920" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="86">
   <si>
     <t>name</t>
   </si>
@@ -270,6 +270,15 @@
   </si>
   <si>
     <t>(11) 4328-6544</t>
+  </si>
+  <si>
+    <t>FarmaPlus (ex-Danesa)</t>
+  </si>
+  <si>
+    <t>Av. Cabildo 2171</t>
+  </si>
+  <si>
+    <t>(11) 47872100</t>
   </si>
 </sst>
 </file>
@@ -365,8 +374,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="TablaFarmacias" displayName="TablaFarmacias" ref="A1:J14">
-  <autoFilter ref="A1:J14" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="TablaFarmacias" displayName="TablaFarmacias" ref="A1:J15">
+  <autoFilter ref="A1:J15" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J12">
     <sortCondition ref="A2:A12"/>
   </sortState>
@@ -675,7 +684,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
+      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1038,6 +1047,29 @@
       </c>
       <c r="I14" t="s">
         <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="4">
+        <v>1147873100</v>
+      </c>
+      <c r="I15" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">

--- a/farmacias.xlsx
+++ b/farmacias.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/germanbegani/Library/Mobile Documents/com~apple~CloudDocs/0 Alef /0 Molteni - Dolor/web_dolor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE852C6-E81A-7D40-87A3-E66808840E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C5CC68-871A-1A49-B2F1-613538A872B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="20920" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="29400" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Farmacias" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="85">
   <si>
     <t>name</t>
   </si>
@@ -80,18 +80,9 @@
     <t>(11) 4027-1615</t>
   </si>
   <si>
-    <t>Farmacia Rex</t>
-  </si>
-  <si>
-    <t>Av. Córdoba 2401</t>
-  </si>
-  <si>
     <t>Recoleta</t>
   </si>
   <si>
-    <t>1149610338</t>
-  </si>
-  <si>
     <t>Farmacia Scienza Pellegrini</t>
   </si>
   <si>
@@ -245,9 +236,6 @@
     <t>Av. H. Yrigoyen 8955</t>
   </si>
   <si>
-    <t>(11) 4961-0338</t>
-  </si>
-  <si>
     <t>(11) 4505-1010</t>
   </si>
   <si>
@@ -278,7 +266,16 @@
     <t>Av. Cabildo 2171</t>
   </si>
   <si>
-    <t>(11) 47872100</t>
+    <t>Farmacia Rp./ Recoleta</t>
+  </si>
+  <si>
+    <t>Av. Las Heras 2002</t>
+  </si>
+  <si>
+    <t>(11)4801-5544</t>
+  </si>
+  <si>
+    <t>(11) 4787-2100</t>
   </si>
 </sst>
 </file>
@@ -376,8 +373,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="TablaFarmacias" displayName="TablaFarmacias" ref="A1:J15">
   <autoFilter ref="A1:J15" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J12">
-    <sortCondition ref="A2:A12"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J15">
+    <sortCondition ref="A8:A15"/>
   </sortState>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="name"/>
@@ -680,11 +677,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -734,36 +731,36 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" t="s">
-        <v>41</v>
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -771,45 +768,45 @@
       <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="H3" t="s">
-        <v>22</v>
+      <c r="H3" s="4">
+        <v>1153530030</v>
       </c>
       <c r="I3" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" t="s">
-        <v>35</v>
+        <v>13</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1147873100</v>
       </c>
       <c r="I4" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -817,22 +814,23 @@
       <c r="E5" t="s">
         <v>13</v>
       </c>
+      <c r="F5" s="3"/>
       <c r="H5" s="4">
-        <v>1155547975</v>
+        <v>1148015544</v>
       </c>
       <c r="I5" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -840,28 +838,22 @@
       <c r="E6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" t="s">
-        <v>28</v>
+      <c r="H6" s="5">
+        <v>1143221001</v>
       </c>
       <c r="I6" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -869,51 +861,45 @@
       <c r="E7" t="s">
         <v>13</v>
       </c>
-      <c r="F7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" t="s">
-        <v>28</v>
+      <c r="H7" s="5">
+        <v>1143286544</v>
       </c>
       <c r="I7" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="I8" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
@@ -921,51 +907,51 @@
       <c r="E9" t="s">
         <v>13</v>
       </c>
-      <c r="F9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" t="s">
-        <v>18</v>
+      <c r="H9" s="4">
+        <v>1155547975</v>
+      </c>
+      <c r="I9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="I10" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
@@ -973,112 +959,121 @@
       <c r="E11" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="4">
-        <v>1153530030</v>
+      <c r="F11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" t="s">
+        <v>25</v>
       </c>
       <c r="I11" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12" t="s">
-        <v>55</v>
+        <v>13</v>
+      </c>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="5">
-        <v>1143221001</v>
+        <v>31</v>
+      </c>
+      <c r="H13" t="s">
+        <v>32</v>
       </c>
       <c r="I13" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="5">
-        <v>1143286544</v>
+        <v>42</v>
+      </c>
+      <c r="F14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" t="s">
+        <v>45</v>
       </c>
       <c r="I14" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="4">
-        <v>1147873100</v>
-      </c>
-      <c r="I15" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F16" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="F15" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H13" r:id="rId1" display="https://www.google.com/search?client=safari&amp;rls=en&amp;q=farmacia+rp+went&amp;ie=UTF-8&amp;oe=UTF-8" xr:uid="{5466422A-0693-4945-A541-40C2AFE25C02}"/>
-    <hyperlink ref="H14" r:id="rId2" display="https://www.google.com/search?q=farmacia+rp+viamonte&amp;client=safari&amp;hs=Xtj9&amp;sca_esv=207ca25c77663f86&amp;rls=en&amp;sxsrf=AE3TifM4DZ0u4Ubf3LGwkNHa6GDtQ1Y8sw%3A1767101236673&amp;ei=NNNTabjxKPjU5OUPtNewyAw&amp;ved=0ahUKEwi42_mLteWRAxV4KrkGHbQrDMkQ4dUDCBE&amp;uact=5&amp;oq=farmacia+rp+viamonte&amp;gs_lp=Egxnd3Mtd2l6LXNlcnAiFGZhcm1hY2lhIHJwIHZpYW1vbnRlMgsQLhiABBjHARivATIFEAAYgAQyBhAAGBYYHjICECYyCBAAGIAEGKIEMhoQLhiABBjHARivARiXBRjcBBjeBBjgBNgBAUjTDVC9BVicDHABeAGQAQCYAbgBoAH6B6oBAzIuNrgBA8gBAPgBAZgCCaACtwjCAgcQIxiwAxgnwgIKEAAYRxjWBBiwA8ICExAuGIAEGIoFGEMYxwEY0QMYsAOYAwCIBgGQBgq6BgYIARABGBSSBwMzLjagB9lAsgcDMi42uAexCMIHBTItOC4xyActgAgB&amp;sclient=gws-wiz-serp" xr:uid="{C0BD8BFB-29E1-644A-BB2C-960C8D742171}"/>
+    <hyperlink ref="H6" r:id="rId1" display="https://www.google.com/search?client=safari&amp;rls=en&amp;q=farmacia+rp+went&amp;ie=UTF-8&amp;oe=UTF-8" xr:uid="{5466422A-0693-4945-A541-40C2AFE25C02}"/>
+    <hyperlink ref="H7" r:id="rId2" display="https://www.google.com/search?q=farmacia+rp+viamonte&amp;client=safari&amp;hs=Xtj9&amp;sca_esv=207ca25c77663f86&amp;rls=en&amp;sxsrf=AE3TifM4DZ0u4Ubf3LGwkNHa6GDtQ1Y8sw%3A1767101236673&amp;ei=NNNTabjxKPjU5OUPtNewyAw&amp;ved=0ahUKEwi42_mLteWRAxV4KrkGHbQrDMkQ4dUDCBE&amp;uact=5&amp;oq=farmacia+rp+viamonte&amp;gs_lp=Egxnd3Mtd2l6LXNlcnAiFGZhcm1hY2lhIHJwIHZpYW1vbnRlMgsQLhiABBjHARivATIFEAAYgAQyBhAAGBYYHjICECYyCBAAGIAEGKIEMhoQLhiABBjHARivARiXBRjcBBjeBBjgBNgBAUjTDVC9BVicDHABeAGQAQCYAbgBoAH6B6oBAzIuNrgBA8gBAPgBAZgCCaACtwjCAgcQIxiwAxgnwgIKEAAYRxjWBBiwA8ICExAuGIAEGIoFGEMYxwEY0QMYsAOYAwCIBgGQBgq6BgYIARABGBSSBwMzLjagB9lAsgcDMi42uAexCMIHBTItOC4xyActgAgB&amp;sclient=gws-wiz-serp" xr:uid="{C0BD8BFB-29E1-644A-BB2C-960C8D742171}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
@@ -1100,47 +1095,47 @@
   <sheetData>
     <row r="1" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/farmacias.xlsx
+++ b/farmacias.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10118"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/germanbegani/Library/Mobile Documents/com~apple~CloudDocs/0 Alef /0 Molteni - Dolor/web_dolor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C5CC68-871A-1A49-B2F1-613538A872B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A416B5F5-CE34-4E48-8B0D-713C98FD3541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="660" windowWidth="29400" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="89">
   <si>
     <t>name</t>
   </si>
@@ -276,6 +276,18 @@
   </si>
   <si>
     <t>(11) 4787-2100</t>
+  </si>
+  <si>
+    <t>Farmacia Azul</t>
+  </si>
+  <si>
+    <t>Av. Entre Rios 299</t>
+  </si>
+  <si>
+    <t>(11) 3985-3640</t>
+  </si>
+  <si>
+    <t>Balvanera</t>
   </si>
 </sst>
 </file>
@@ -371,10 +383,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="TablaFarmacias" displayName="TablaFarmacias" ref="A1:J15">
-  <autoFilter ref="A1:J15" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J15">
-    <sortCondition ref="A8:A15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="TablaFarmacias" displayName="TablaFarmacias" ref="A1:J16">
+  <autoFilter ref="A1:J16" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J16">
+    <sortCondition ref="A9:A16"/>
   </sortState>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="name"/>
@@ -677,11 +689,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -800,13 +812,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -814,23 +826,22 @@
       <c r="E5" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="3"/>
       <c r="H5" s="4">
-        <v>1148015544</v>
+        <v>1139854640</v>
       </c>
       <c r="I5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -838,19 +849,20 @@
       <c r="E6" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="5">
-        <v>1143221001</v>
+      <c r="F6" s="3"/>
+      <c r="H6" s="4">
+        <v>1148015544</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C7" t="s">
         <v>73</v>
@@ -862,67 +874,67 @@
         <v>13</v>
       </c>
       <c r="H7" s="5">
-        <v>1143286544</v>
+        <v>1143221001</v>
       </c>
       <c r="I7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" t="s">
-        <v>37</v>
+        <v>13</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1143286544</v>
       </c>
       <c r="I8" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="4">
-        <v>1155547975</v>
+        <v>31</v>
+      </c>
+      <c r="H9" t="s">
+        <v>37</v>
       </c>
       <c r="I9" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
@@ -930,14 +942,8 @@
       <c r="E10" t="s">
         <v>13</v>
       </c>
-      <c r="F10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" t="s">
-        <v>25</v>
+      <c r="H10" s="4">
+        <v>1155547975</v>
       </c>
       <c r="I10" t="s">
         <v>26</v>
@@ -945,13 +951,13 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
@@ -974,13 +980,13 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
@@ -988,92 +994,121 @@
       <c r="E12" t="s">
         <v>13</v>
       </c>
+      <c r="F12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" t="s">
+        <v>24</v>
+      </c>
       <c r="H12" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I12" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="H13" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="I13" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H14" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="I14" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>47</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>48</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>49</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
         <v>49</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E16" t="s">
         <v>50</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F16" t="s">
         <v>51</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G16" t="s">
         <v>52</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H6" r:id="rId1" display="https://www.google.com/search?client=safari&amp;rls=en&amp;q=farmacia+rp+went&amp;ie=UTF-8&amp;oe=UTF-8" xr:uid="{5466422A-0693-4945-A541-40C2AFE25C02}"/>
-    <hyperlink ref="H7" r:id="rId2" display="https://www.google.com/search?q=farmacia+rp+viamonte&amp;client=safari&amp;hs=Xtj9&amp;sca_esv=207ca25c77663f86&amp;rls=en&amp;sxsrf=AE3TifM4DZ0u4Ubf3LGwkNHa6GDtQ1Y8sw%3A1767101236673&amp;ei=NNNTabjxKPjU5OUPtNewyAw&amp;ved=0ahUKEwi42_mLteWRAxV4KrkGHbQrDMkQ4dUDCBE&amp;uact=5&amp;oq=farmacia+rp+viamonte&amp;gs_lp=Egxnd3Mtd2l6LXNlcnAiFGZhcm1hY2lhIHJwIHZpYW1vbnRlMgsQLhiABBjHARivATIFEAAYgAQyBhAAGBYYHjICECYyCBAAGIAEGKIEMhoQLhiABBjHARivARiXBRjcBBjeBBjgBNgBAUjTDVC9BVicDHABeAGQAQCYAbgBoAH6B6oBAzIuNrgBA8gBAPgBAZgCCaACtwjCAgcQIxiwAxgnwgIKEAAYRxjWBBiwA8ICExAuGIAEGIoFGEMYxwEY0QMYsAOYAwCIBgGQBgq6BgYIARABGBSSBwMzLjagB9lAsgcDMi42uAexCMIHBTItOC4xyActgAgB&amp;sclient=gws-wiz-serp" xr:uid="{C0BD8BFB-29E1-644A-BB2C-960C8D742171}"/>
+    <hyperlink ref="H7" r:id="rId1" display="https://www.google.com/search?client=safari&amp;rls=en&amp;q=farmacia+rp+went&amp;ie=UTF-8&amp;oe=UTF-8" xr:uid="{5466422A-0693-4945-A541-40C2AFE25C02}"/>
+    <hyperlink ref="H8" r:id="rId2" display="https://www.google.com/search?q=farmacia+rp+viamonte&amp;client=safari&amp;hs=Xtj9&amp;sca_esv=207ca25c77663f86&amp;rls=en&amp;sxsrf=AE3TifM4DZ0u4Ubf3LGwkNHa6GDtQ1Y8sw%3A1767101236673&amp;ei=NNNTabjxKPjU5OUPtNewyAw&amp;ved=0ahUKEwi42_mLteWRAxV4KrkGHbQrDMkQ4dUDCBE&amp;uact=5&amp;oq=farmacia+rp+viamonte&amp;gs_lp=Egxnd3Mtd2l6LXNlcnAiFGZhcm1hY2lhIHJwIHZpYW1vbnRlMgsQLhiABBjHARivATIFEAAYgAQyBhAAGBYYHjICECYyCBAAGIAEGKIEMhoQLhiABBjHARivARiXBRjcBBjeBBjgBNgBAUjTDVC9BVicDHABeAGQAQCYAbgBoAH6B6oBAzIuNrgBA8gBAPgBAZgCCaACtwjCAgcQIxiwAxgnwgIKEAAYRxjWBBiwA8ICExAuGIAEGIoFGEMYxwEY0QMYsAOYAwCIBgGQBgq6BgYIARABGBSSBwMzLjagB9lAsgcDMi42uAexCMIHBTItOC4xyActgAgB&amp;sclient=gws-wiz-serp" xr:uid="{C0BD8BFB-29E1-644A-BB2C-960C8D742171}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">

--- a/farmacias.xlsx
+++ b/farmacias.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/germanbegani/Library/Mobile Documents/com~apple~CloudDocs/0 Alef /0 Molteni - Dolor/web_dolor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A416B5F5-CE34-4E48-8B0D-713C98FD3541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79CFA2D8-142C-9E48-91CF-34A60FAC535F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="29400" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="29400" windowHeight="16940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Farmacias" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="95">
   <si>
     <t>name</t>
   </si>
@@ -288,6 +288,24 @@
   </si>
   <si>
     <t>Balvanera</t>
+  </si>
+  <si>
+    <t>Farmacia Alem</t>
+  </si>
+  <si>
+    <t>Leandro Alem 2654</t>
+  </si>
+  <si>
+    <t>Ushuaia</t>
+  </si>
+  <si>
+    <t>Tierra del Fuego</t>
+  </si>
+  <si>
+    <t>(2901)584-008</t>
+  </si>
+  <si>
+    <t>(2901) 425-045</t>
   </si>
 </sst>
 </file>
@@ -351,7 +369,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -363,6 +381,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -383,8 +404,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="TablaFarmacias" displayName="TablaFarmacias" ref="A1:J16">
-  <autoFilter ref="A1:J16" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="TablaFarmacias" displayName="TablaFarmacias" ref="A1:J17">
+  <autoFilter ref="A1:J17" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J16">
     <sortCondition ref="A9:A16"/>
   </sortState>
@@ -689,11 +710,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1105,6 +1126,35 @@
         <v>52</v>
       </c>
     </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" s="6">
+        <v>2901584008</v>
+      </c>
+      <c r="G17" t="s">
+        <v>93</v>
+      </c>
+      <c r="H17" s="4">
+        <v>2901425045</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H7" r:id="rId1" display="https://www.google.com/search?client=safari&amp;rls=en&amp;q=farmacia+rp+went&amp;ie=UTF-8&amp;oe=UTF-8" xr:uid="{5466422A-0693-4945-A541-40C2AFE25C02}"/>
@@ -1121,7 +1171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
